--- a/Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422D7E04-804F-4225-B782-7FECB32D6A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIEGY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>SIEGY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,148 +689,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24031400</v>
+        <v>22570000</v>
       </c>
       <c r="E8" s="3">
-        <v>23641700</v>
+        <v>25364800</v>
       </c>
       <c r="F8" s="3">
-        <v>23268400</v>
+        <v>22970500</v>
       </c>
       <c r="G8" s="3">
-        <v>26174800</v>
+        <v>22598000</v>
       </c>
       <c r="H8" s="3">
-        <v>24999800</v>
+        <v>22241200</v>
       </c>
       <c r="I8" s="3">
+        <v>24927300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>23896100</v>
+      </c>
+      <c r="K8" s="3">
         <v>23634700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>22552400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16892300</v>
+        <v>15939000</v>
       </c>
       <c r="E9" s="3">
-        <v>16239700</v>
+        <v>18055100</v>
       </c>
       <c r="F9" s="3">
-        <v>16272500</v>
+        <v>16146600</v>
       </c>
       <c r="G9" s="3">
-        <v>18737500</v>
+        <v>15522700</v>
       </c>
       <c r="H9" s="3">
-        <v>17817300</v>
+        <v>15554100</v>
       </c>
       <c r="I9" s="3">
+        <v>17849700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17030700</v>
+      </c>
+      <c r="K9" s="3">
         <v>15969700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>15409800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7139100</v>
+        <v>6631000</v>
       </c>
       <c r="E10" s="3">
-        <v>7402000</v>
+        <v>7309800</v>
       </c>
       <c r="F10" s="3">
-        <v>6995900</v>
+        <v>6823900</v>
       </c>
       <c r="G10" s="3">
-        <v>7437300</v>
+        <v>7075300</v>
       </c>
       <c r="H10" s="3">
-        <v>7182500</v>
+        <v>6687100</v>
       </c>
       <c r="I10" s="3">
+        <v>7077500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6865500</v>
+      </c>
+      <c r="K10" s="3">
         <v>7665000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7142600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,37 +866,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1610500</v>
+        <v>1465300</v>
       </c>
       <c r="E12" s="3">
-        <v>1637500</v>
+        <v>1758200</v>
       </c>
       <c r="F12" s="3">
-        <v>1436700</v>
+        <v>1539400</v>
       </c>
       <c r="G12" s="3">
-        <v>1732500</v>
+        <v>1565200</v>
       </c>
       <c r="H12" s="3">
-        <v>1581100</v>
+        <v>1373300</v>
       </c>
       <c r="I12" s="3">
+        <v>1656100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1511300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1425000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1322900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,37 +932,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,8 +1002,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22262500</v>
+        <v>21087800</v>
       </c>
       <c r="E17" s="3">
-        <v>21635700</v>
+        <v>23834400</v>
       </c>
       <c r="F17" s="3">
-        <v>21383300</v>
+        <v>21279700</v>
       </c>
       <c r="G17" s="3">
-        <v>24450500</v>
+        <v>20680500</v>
       </c>
       <c r="H17" s="3">
-        <v>23122900</v>
+        <v>20439300</v>
       </c>
       <c r="I17" s="3">
+        <v>23346400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>22102100</v>
+      </c>
+      <c r="K17" s="3">
         <v>20967800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>19862000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1768900</v>
+        <v>1482100</v>
       </c>
       <c r="E18" s="3">
-        <v>2006000</v>
+        <v>1530400</v>
       </c>
       <c r="F18" s="3">
-        <v>1885100</v>
+        <v>1690800</v>
       </c>
       <c r="G18" s="3">
-        <v>1724300</v>
+        <v>1917500</v>
       </c>
       <c r="H18" s="3">
-        <v>1876900</v>
+        <v>1801900</v>
       </c>
       <c r="I18" s="3">
+        <v>1580900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1794100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2666900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2690400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1103,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>466000</v>
+        <v>580100</v>
       </c>
       <c r="E20" s="3">
-        <v>1436700</v>
+        <v>354500</v>
       </c>
       <c r="F20" s="3">
-        <v>1193800</v>
+        <v>445400</v>
       </c>
       <c r="G20" s="3">
-        <v>500000</v>
+        <v>1373300</v>
       </c>
       <c r="H20" s="3">
-        <v>542300</v>
+        <v>1141100</v>
       </c>
       <c r="I20" s="3">
+        <v>478000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>518400</v>
+      </c>
+      <c r="K20" s="3">
         <v>154900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>759500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3188100</v>
+        <v>2992300</v>
       </c>
       <c r="E21" s="3">
-        <v>4425300</v>
+        <v>2911600</v>
       </c>
       <c r="F21" s="3">
-        <v>4082500</v>
+        <v>3047300</v>
       </c>
       <c r="G21" s="3">
-        <v>3420500</v>
+        <v>4229900</v>
       </c>
       <c r="H21" s="3">
-        <v>3431000</v>
+        <v>3902300</v>
       </c>
       <c r="I21" s="3">
+        <v>3202200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3279600</v>
+      </c>
+      <c r="K21" s="3">
         <v>3607100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4225700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>320500</v>
+        <v>326500</v>
       </c>
       <c r="E22" s="3">
-        <v>312200</v>
+        <v>305200</v>
       </c>
       <c r="F22" s="3">
-        <v>326300</v>
+        <v>306300</v>
       </c>
       <c r="G22" s="3">
-        <v>325100</v>
+        <v>298400</v>
       </c>
       <c r="H22" s="3">
-        <v>336900</v>
+        <v>311900</v>
       </c>
       <c r="I22" s="3">
+        <v>310800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>322000</v>
+      </c>
+      <c r="K22" s="3">
         <v>284100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>286400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1914500</v>
+        <v>1735700</v>
       </c>
       <c r="E23" s="3">
-        <v>3130600</v>
+        <v>1579800</v>
       </c>
       <c r="F23" s="3">
-        <v>2752600</v>
+        <v>1830000</v>
       </c>
       <c r="G23" s="3">
-        <v>1899200</v>
+        <v>2992300</v>
       </c>
       <c r="H23" s="3">
-        <v>2082300</v>
+        <v>2631100</v>
       </c>
       <c r="I23" s="3">
+        <v>1748100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1990400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2537800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3163400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>548200</v>
+        <v>481300</v>
       </c>
       <c r="E24" s="3">
-        <v>809900</v>
+        <v>839200</v>
       </c>
       <c r="F24" s="3">
-        <v>685500</v>
+        <v>524000</v>
       </c>
       <c r="G24" s="3">
-        <v>416700</v>
+        <v>774200</v>
       </c>
       <c r="H24" s="3">
-        <v>410800</v>
+        <v>655200</v>
       </c>
       <c r="I24" s="3">
+        <v>379200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>392700</v>
+      </c>
+      <c r="K24" s="3">
         <v>860400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>853400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1366300</v>
+        <v>1254400</v>
       </c>
       <c r="E26" s="3">
-        <v>2320600</v>
+        <v>740500</v>
       </c>
       <c r="F26" s="3">
-        <v>2067100</v>
+        <v>1306000</v>
       </c>
       <c r="G26" s="3">
-        <v>1482500</v>
+        <v>2218200</v>
       </c>
       <c r="H26" s="3">
-        <v>1671500</v>
+        <v>1975800</v>
       </c>
       <c r="I26" s="3">
+        <v>1368800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1597700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1677400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2310100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1244200</v>
+        <v>1137700</v>
       </c>
       <c r="E27" s="3">
-        <v>2243200</v>
+        <v>602500</v>
       </c>
       <c r="F27" s="3">
-        <v>2042400</v>
+        <v>1189300</v>
       </c>
       <c r="G27" s="3">
-        <v>1464900</v>
+        <v>2144100</v>
       </c>
       <c r="H27" s="3">
-        <v>1610500</v>
+        <v>1952300</v>
       </c>
       <c r="I27" s="3">
+        <v>1350900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1539400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1636300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2271300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1414,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>49300</v>
+        <v>24700</v>
       </c>
       <c r="F29" s="3">
-        <v>527000</v>
+        <v>51600</v>
       </c>
       <c r="G29" s="3">
-        <v>36400</v>
+        <v>47100</v>
       </c>
       <c r="H29" s="3">
-        <v>-17600</v>
+        <v>503800</v>
       </c>
       <c r="I29" s="3">
+        <v>34800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K29" s="3">
         <v>29300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>14100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-466000</v>
+        <v>-580100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1436700</v>
+        <v>-354500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1193800</v>
+        <v>-445400</v>
       </c>
       <c r="G32" s="3">
-        <v>-500000</v>
+        <v>-1373300</v>
       </c>
       <c r="H32" s="3">
-        <v>-542300</v>
+        <v>-1141100</v>
       </c>
       <c r="I32" s="3">
+        <v>-478000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-518400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-154900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-759500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1298200</v>
+        <v>1137700</v>
       </c>
       <c r="E33" s="3">
-        <v>2292500</v>
+        <v>627200</v>
       </c>
       <c r="F33" s="3">
-        <v>2569500</v>
+        <v>1240900</v>
       </c>
       <c r="G33" s="3">
-        <v>1501300</v>
+        <v>2191200</v>
       </c>
       <c r="H33" s="3">
-        <v>1592900</v>
+        <v>2456000</v>
       </c>
       <c r="I33" s="3">
+        <v>1385700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1522500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1665600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2285400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1298200</v>
+        <v>1137700</v>
       </c>
       <c r="E35" s="3">
-        <v>2292500</v>
+        <v>627200</v>
       </c>
       <c r="F35" s="3">
-        <v>2569500</v>
+        <v>1240900</v>
       </c>
       <c r="G35" s="3">
-        <v>1501300</v>
+        <v>2191200</v>
       </c>
       <c r="H35" s="3">
-        <v>1592900</v>
+        <v>2456000</v>
       </c>
       <c r="I35" s="3">
+        <v>1385700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1522500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1665600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2285400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,269 +1733,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8322300</v>
+        <v>13900300</v>
       </c>
       <c r="E41" s="3">
-        <v>11246300</v>
+        <v>12415900</v>
       </c>
       <c r="F41" s="3">
-        <v>11733400</v>
+        <v>7954900</v>
       </c>
       <c r="G41" s="3">
-        <v>9830700</v>
+        <v>10749800</v>
       </c>
       <c r="H41" s="3">
-        <v>9959800</v>
+        <v>11215400</v>
       </c>
       <c r="I41" s="3">
+        <v>9396700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>9520100</v>
+      </c>
+      <c r="K41" s="3">
         <v>11598400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11182900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10844800</v>
+        <v>10598300</v>
       </c>
       <c r="E42" s="3">
-        <v>11117200</v>
+        <v>12019900</v>
       </c>
       <c r="F42" s="3">
-        <v>10600700</v>
+        <v>10366100</v>
       </c>
       <c r="G42" s="3">
-        <v>10454000</v>
+        <v>10626400</v>
       </c>
       <c r="H42" s="3">
-        <v>10206300</v>
+        <v>10132700</v>
       </c>
       <c r="I42" s="3">
+        <v>9992400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9755700</v>
+      </c>
+      <c r="K42" s="3">
         <v>10085400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>10037200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21797700</v>
+        <v>32390700</v>
       </c>
       <c r="E43" s="3">
-        <v>20553400</v>
+        <v>31838700</v>
       </c>
       <c r="F43" s="3">
-        <v>21227200</v>
+        <v>30555200</v>
       </c>
       <c r="G43" s="3">
-        <v>20954900</v>
+        <v>28899100</v>
       </c>
       <c r="H43" s="3">
-        <v>21720200</v>
+        <v>29119000</v>
       </c>
       <c r="I43" s="3">
+        <v>29882000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>20761300</v>
+      </c>
+      <c r="K43" s="3">
         <v>20843300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>20116800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17271400</v>
+        <v>16781600</v>
       </c>
       <c r="E44" s="3">
-        <v>16919300</v>
+        <v>15578800</v>
       </c>
       <c r="F44" s="3">
-        <v>16905200</v>
+        <v>16509000</v>
       </c>
       <c r="G44" s="3">
-        <v>16298400</v>
+        <v>16172400</v>
       </c>
       <c r="H44" s="3">
-        <v>24417600</v>
+        <v>16158900</v>
       </c>
       <c r="I44" s="3">
+        <v>15578800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>23339600</v>
+      </c>
+      <c r="K44" s="3">
         <v>23185100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>22082900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12379000</v>
+        <v>2203600</v>
       </c>
       <c r="E45" s="3">
-        <v>11956400</v>
+        <v>2019600</v>
       </c>
       <c r="F45" s="3">
-        <v>11262700</v>
+        <v>2112700</v>
       </c>
       <c r="G45" s="3">
-        <v>15493100</v>
+        <v>2175500</v>
       </c>
       <c r="H45" s="3">
-        <v>2162200</v>
+        <v>1936600</v>
       </c>
       <c r="I45" s="3">
+        <v>4957000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2066700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1916800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1676200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>70615200</v>
+        <v>75874600</v>
       </c>
       <c r="E46" s="3">
-        <v>71792600</v>
+        <v>72431200</v>
       </c>
       <c r="F46" s="3">
-        <v>71729200</v>
+        <v>67497800</v>
       </c>
       <c r="G46" s="3">
-        <v>71309000</v>
+        <v>68623200</v>
       </c>
       <c r="H46" s="3">
-        <v>68466000</v>
+        <v>68562600</v>
       </c>
       <c r="I46" s="3">
+        <v>68160900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>65443400</v>
+      </c>
+      <c r="K46" s="3">
         <v>67629100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>65096000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23626400</v>
+        <v>23418200</v>
       </c>
       <c r="E47" s="3">
-        <v>22629900</v>
+        <v>22835900</v>
       </c>
       <c r="F47" s="3">
-        <v>24991600</v>
+        <v>22583400</v>
       </c>
       <c r="G47" s="3">
-        <v>25555000</v>
+        <v>21630800</v>
       </c>
       <c r="H47" s="3">
-        <v>26960100</v>
+        <v>23888300</v>
       </c>
       <c r="I47" s="3">
+        <v>24426800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>25769900</v>
+      </c>
+      <c r="K47" s="3">
         <v>27684300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>27944900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12996400</v>
+        <v>12923100</v>
       </c>
       <c r="E48" s="3">
-        <v>12767500</v>
+        <v>12769400</v>
       </c>
       <c r="F48" s="3">
-        <v>12744100</v>
+        <v>12422700</v>
       </c>
       <c r="G48" s="3">
-        <v>12884900</v>
+        <v>12203900</v>
       </c>
       <c r="H48" s="3">
-        <v>12820400</v>
+        <v>12181400</v>
       </c>
       <c r="I48" s="3">
+        <v>12316100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12254400</v>
+      </c>
+      <c r="K48" s="3">
         <v>12244000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12059700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45197600</v>
+        <v>43885500</v>
       </c>
       <c r="E49" s="3">
-        <v>44245600</v>
+        <v>43168600</v>
       </c>
       <c r="F49" s="3">
-        <v>45300800</v>
+        <v>43202200</v>
       </c>
       <c r="G49" s="3">
-        <v>45581400</v>
+        <v>42292300</v>
       </c>
       <c r="H49" s="3">
-        <v>46531000</v>
+        <v>43301000</v>
       </c>
       <c r="I49" s="3">
+        <v>43569100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>44476800</v>
+      </c>
+      <c r="K49" s="3">
         <v>42453200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>38471600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2114,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4950000</v>
+        <v>5025400</v>
       </c>
       <c r="E52" s="3">
-        <v>5121300</v>
+        <v>4656300</v>
       </c>
       <c r="F52" s="3">
-        <v>4938200</v>
+        <v>4731400</v>
       </c>
       <c r="G52" s="3">
-        <v>4438200</v>
+        <v>4895200</v>
       </c>
       <c r="H52" s="3">
-        <v>3953400</v>
+        <v>4720200</v>
       </c>
       <c r="I52" s="3">
+        <v>4242200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3778900</v>
+      </c>
+      <c r="K52" s="3">
         <v>4188200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4597800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>157385600</v>
+        <v>161126700</v>
       </c>
       <c r="E54" s="3">
-        <v>156556900</v>
+        <v>155861200</v>
       </c>
       <c r="F54" s="3">
-        <v>159703900</v>
+        <v>150437500</v>
       </c>
       <c r="G54" s="3">
-        <v>159768500</v>
+        <v>149645400</v>
       </c>
       <c r="H54" s="3">
-        <v>158730800</v>
+        <v>152653500</v>
       </c>
       <c r="I54" s="3">
+        <v>152715200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>151723300</v>
+      </c>
+      <c r="K54" s="3">
         <v>154198700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>148170000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2253,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11221600</v>
+        <v>11235600</v>
       </c>
       <c r="E57" s="3">
-        <v>10491500</v>
+        <v>12023200</v>
       </c>
       <c r="F57" s="3">
-        <v>10449300</v>
+        <v>10726200</v>
       </c>
       <c r="G57" s="3">
-        <v>11451700</v>
+        <v>10028300</v>
       </c>
       <c r="H57" s="3">
-        <v>11267400</v>
+        <v>9988000</v>
       </c>
       <c r="I57" s="3">
+        <v>10946100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10770000</v>
+      </c>
+      <c r="K57" s="3">
         <v>9352900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8818800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3593000</v>
+        <v>8788500</v>
       </c>
       <c r="E58" s="3">
-        <v>6647300</v>
+        <v>11347800</v>
       </c>
       <c r="F58" s="3">
-        <v>6504100</v>
+        <v>3434400</v>
       </c>
       <c r="G58" s="3">
-        <v>6393700</v>
+        <v>6353800</v>
       </c>
       <c r="H58" s="3">
-        <v>8055900</v>
+        <v>6216900</v>
       </c>
       <c r="I58" s="3">
+        <v>6111500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7700200</v>
+      </c>
+      <c r="K58" s="3">
         <v>6085000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5627200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36498400</v>
+        <v>36969600</v>
       </c>
       <c r="E59" s="3">
-        <v>36147500</v>
+        <v>36017000</v>
       </c>
       <c r="F59" s="3">
-        <v>37080700</v>
+        <v>34887200</v>
       </c>
       <c r="G59" s="3">
-        <v>36240200</v>
+        <v>34551700</v>
       </c>
       <c r="H59" s="3">
-        <v>33478200</v>
+        <v>35443700</v>
       </c>
       <c r="I59" s="3">
+        <v>34640300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>32000300</v>
+      </c>
+      <c r="K59" s="3">
         <v>33477100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>33731800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51313100</v>
+        <v>56993700</v>
       </c>
       <c r="E60" s="3">
-        <v>53286300</v>
+        <v>53714100</v>
       </c>
       <c r="F60" s="3">
-        <v>54034000</v>
+        <v>49047800</v>
       </c>
       <c r="G60" s="3">
-        <v>54085600</v>
+        <v>50933900</v>
       </c>
       <c r="H60" s="3">
-        <v>52801500</v>
+        <v>51648600</v>
       </c>
       <c r="I60" s="3">
+        <v>51697900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>50470500</v>
+      </c>
+      <c r="K60" s="3">
         <v>48915000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>48177900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30645800</v>
+        <v>31142000</v>
       </c>
       <c r="E61" s="3">
-        <v>29649300</v>
+        <v>30428400</v>
       </c>
       <c r="F61" s="3">
-        <v>31944100</v>
+        <v>29292900</v>
       </c>
       <c r="G61" s="3">
-        <v>32489900</v>
+        <v>28340300</v>
       </c>
       <c r="H61" s="3">
-        <v>33505200</v>
+        <v>29600300</v>
       </c>
       <c r="I61" s="3">
+        <v>30043500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>32026100</v>
+      </c>
+      <c r="K61" s="3">
         <v>38674700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>31563800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19093200</v>
+        <v>19543900</v>
       </c>
       <c r="E62" s="3">
-        <v>19511100</v>
+        <v>17811600</v>
       </c>
       <c r="F62" s="3">
-        <v>20453600</v>
+        <v>18250300</v>
       </c>
       <c r="G62" s="3">
-        <v>20817500</v>
+        <v>18649700</v>
       </c>
       <c r="H62" s="3">
-        <v>21338700</v>
+        <v>20484200</v>
       </c>
       <c r="I62" s="3">
+        <v>20910500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>20396700</v>
+      </c>
+      <c r="K62" s="3">
         <v>21366900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>22391600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103964400</v>
+        <v>110634900</v>
       </c>
       <c r="E66" s="3">
-        <v>105294300</v>
+        <v>104841000</v>
       </c>
       <c r="F66" s="3">
-        <v>108023400</v>
+        <v>99374700</v>
       </c>
       <c r="G66" s="3">
-        <v>109082200</v>
+        <v>100645900</v>
       </c>
       <c r="H66" s="3">
-        <v>109493000</v>
+        <v>103254500</v>
       </c>
       <c r="I66" s="3">
+        <v>104266500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>104659200</v>
+      </c>
+      <c r="K66" s="3">
         <v>109687800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>102846900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2684,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2719,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47537000</v>
+        <v>45695300</v>
       </c>
       <c r="E72" s="3">
-        <v>46032100</v>
+        <v>46017300</v>
       </c>
       <c r="F72" s="3">
-        <v>44316000</v>
+        <v>45438400</v>
       </c>
       <c r="G72" s="3">
-        <v>42015400</v>
+        <v>44000000</v>
       </c>
       <c r="H72" s="3">
-        <v>40246400</v>
+        <v>42359600</v>
       </c>
       <c r="I72" s="3">
+        <v>40160500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>38469700</v>
+      </c>
+      <c r="K72" s="3">
         <v>35296500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>36673300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>53421300</v>
+        <v>50491800</v>
       </c>
       <c r="E76" s="3">
-        <v>51262600</v>
+        <v>51020300</v>
       </c>
       <c r="F76" s="3">
-        <v>51680500</v>
+        <v>51062900</v>
       </c>
       <c r="G76" s="3">
-        <v>50686300</v>
+        <v>48999500</v>
       </c>
       <c r="H76" s="3">
-        <v>49237800</v>
+        <v>49399000</v>
       </c>
       <c r="I76" s="3">
+        <v>48448700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>47064100</v>
+      </c>
+      <c r="K76" s="3">
         <v>44510900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>45323200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1298200</v>
+        <v>1137700</v>
       </c>
       <c r="E81" s="3">
-        <v>2292500</v>
+        <v>627200</v>
       </c>
       <c r="F81" s="3">
-        <v>2569500</v>
+        <v>1240900</v>
       </c>
       <c r="G81" s="3">
-        <v>1501300</v>
+        <v>2191200</v>
       </c>
       <c r="H81" s="3">
-        <v>1592900</v>
+        <v>2456000</v>
       </c>
       <c r="I81" s="3">
+        <v>1385700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1522500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1665600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2285400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>953100</v>
+        <v>930100</v>
       </c>
       <c r="E83" s="3">
-        <v>982500</v>
+        <v>1026600</v>
       </c>
       <c r="F83" s="3">
-        <v>1003600</v>
+        <v>911100</v>
       </c>
       <c r="G83" s="3">
-        <v>1196100</v>
+        <v>939100</v>
       </c>
       <c r="H83" s="3">
-        <v>1011800</v>
+        <v>959300</v>
       </c>
       <c r="I83" s="3">
+        <v>1143300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>967200</v>
+      </c>
+      <c r="K83" s="3">
         <v>785300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>775900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1737200</v>
+        <v>210900</v>
       </c>
       <c r="E89" s="3">
-        <v>1564700</v>
+        <v>4757200</v>
       </c>
       <c r="F89" s="3">
-        <v>1611600</v>
+        <v>1660500</v>
       </c>
       <c r="G89" s="3">
-        <v>3804300</v>
+        <v>1495600</v>
       </c>
       <c r="H89" s="3">
-        <v>1864000</v>
+        <v>1540500</v>
       </c>
       <c r="I89" s="3">
+        <v>3636400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1781700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1423800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1331100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-707800</v>
+        <v>-589000</v>
       </c>
       <c r="E91" s="3">
-        <v>-635000</v>
+        <v>-1072600</v>
       </c>
       <c r="F91" s="3">
-        <v>-589300</v>
+        <v>-676600</v>
       </c>
       <c r="G91" s="3">
-        <v>795800</v>
+        <v>-607000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1516600</v>
+        <v>-563200</v>
       </c>
       <c r="I91" s="3">
+        <v>-969400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-724800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-988300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1071700</v>
+        <v>-1428300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1368700</v>
+        <v>-2494200</v>
       </c>
       <c r="F94" s="3">
-        <v>619800</v>
+        <v>-1024400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1972000</v>
+        <v>-1308200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1745500</v>
+        <v>592400</v>
       </c>
       <c r="I94" s="3">
+        <v>-1884900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1668400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-369800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,8 +3473,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3003,8 +3504,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3662300</v>
+        <v>2627700</v>
       </c>
       <c r="E100" s="3">
-        <v>-669100</v>
+        <v>2337100</v>
       </c>
       <c r="F100" s="3">
-        <v>-397900</v>
+        <v>-3500600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1808800</v>
+        <v>-639500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1335800</v>
+        <v>-380400</v>
       </c>
       <c r="I100" s="3">
+        <v>-1729000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1276800</v>
+      </c>
+      <c r="K100" s="3">
         <v>3617700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>72800</v>
+        <v>74100</v>
       </c>
       <c r="E101" s="3">
-        <v>-14100</v>
+        <v>-139100</v>
       </c>
       <c r="F101" s="3">
-        <v>52800</v>
+        <v>69600</v>
       </c>
       <c r="G101" s="3">
-        <v>-136200</v>
+        <v>-13500</v>
       </c>
       <c r="H101" s="3">
-        <v>-421400</v>
+        <v>50500</v>
       </c>
       <c r="I101" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-402800</v>
+      </c>
+      <c r="K101" s="3">
         <v>39900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>63400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2924000</v>
+        <v>1484400</v>
       </c>
       <c r="E102" s="3">
-        <v>-487100</v>
+        <v>4461000</v>
       </c>
       <c r="F102" s="3">
-        <v>1886300</v>
+        <v>-2794900</v>
       </c>
       <c r="G102" s="3">
-        <v>-112700</v>
+        <v>-465600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1638600</v>
+        <v>1803000</v>
       </c>
       <c r="I102" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1566300</v>
+      </c>
+      <c r="K102" s="3">
         <v>415500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422D7E04-804F-4225-B782-7FECB32D6A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SIEGY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SIEGY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,172 +654,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22570000</v>
+        <v>22308100</v>
       </c>
       <c r="E8" s="3">
-        <v>25364800</v>
+        <v>26925200</v>
       </c>
       <c r="F8" s="3">
-        <v>22970500</v>
+        <v>23360000</v>
       </c>
       <c r="G8" s="3">
+        <v>22987700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>22087400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24822500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22479400</v>
+      </c>
+      <c r="K8" s="3">
         <v>22598000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>22241200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>24927300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>23896100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>23634700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>22552400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15939000</v>
+        <v>15978100</v>
       </c>
       <c r="E9" s="3">
-        <v>18055100</v>
+        <v>18908700</v>
       </c>
       <c r="F9" s="3">
-        <v>16146600</v>
+        <v>16572100</v>
       </c>
       <c r="G9" s="3">
+        <v>15813400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>15598200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>17669000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15801300</v>
+      </c>
+      <c r="K9" s="3">
         <v>15522700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>15554100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>17849700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>17030700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>15969700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>15409800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6631000</v>
+        <v>6330000</v>
       </c>
       <c r="E10" s="3">
-        <v>7309800</v>
+        <v>8016500</v>
       </c>
       <c r="F10" s="3">
-        <v>6823900</v>
+        <v>6787800</v>
       </c>
       <c r="G10" s="3">
+        <v>7174300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6489200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7153500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6678000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7075300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>6687100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>7077500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>6865500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>7665000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>7142600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,43 +881,59 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1465300</v>
+        <v>1471300</v>
       </c>
       <c r="E12" s="3">
-        <v>1758200</v>
+        <v>1757900</v>
       </c>
       <c r="F12" s="3">
-        <v>1539400</v>
+        <v>1526200</v>
       </c>
       <c r="G12" s="3">
+        <v>1507600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1720600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1506500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1565200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="L12" s="3">
         <v>1373300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>1656100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <v>1511300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>1425000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="P12" s="3">
         <v>1322900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="Q12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,8 +967,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,17 +1005,29 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1061,20 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1085,106 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>21087800</v>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>23834400</v>
+        <v>24601800</v>
       </c>
       <c r="F17" s="3">
-        <v>21279700</v>
+        <v>21750300</v>
       </c>
       <c r="G17" s="3">
+        <v>20808200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>20636900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>23324800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20824700</v>
+      </c>
+      <c r="K17" s="3">
         <v>20680500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>20439300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>23346400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>22102100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>20967800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>19862000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1482100</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>1530400</v>
+        <v>2323400</v>
       </c>
       <c r="F18" s="3">
-        <v>1690800</v>
+        <v>1609700</v>
       </c>
       <c r="G18" s="3">
+        <v>2179500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1450500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1497700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1654700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1917500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>1801900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>1580900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>1794100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>2666900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>2690400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,183 +1198,247 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>580100</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>354500</v>
+        <v>387600</v>
       </c>
       <c r="F20" s="3">
-        <v>445400</v>
+        <v>401900</v>
       </c>
       <c r="G20" s="3">
+        <v>574300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>567700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>347000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>435900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1373300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>1141100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>478000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>518400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>154900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>759500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2992300</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>2911600</v>
+        <v>3770500</v>
       </c>
       <c r="F21" s="3">
-        <v>3047300</v>
+        <v>2960200</v>
       </c>
       <c r="G21" s="3">
+        <v>3671700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2928400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2849300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2982200</v>
+      </c>
+      <c r="K21" s="3">
         <v>4229900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>3902300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>3202200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>3279600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>3607100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>4225700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>326500</v>
+        <v>283300</v>
       </c>
       <c r="E22" s="3">
-        <v>305200</v>
+        <v>311800</v>
       </c>
       <c r="F22" s="3">
-        <v>306300</v>
+        <v>325000</v>
       </c>
       <c r="G22" s="3">
+        <v>283300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>319500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>298700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>299800</v>
+      </c>
+      <c r="K22" s="3">
         <v>298400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>311900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>310800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>322000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>284100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>286400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1735700</v>
+        <v>1455900</v>
       </c>
       <c r="E23" s="3">
-        <v>1579800</v>
+        <v>2399100</v>
       </c>
       <c r="F23" s="3">
-        <v>1830000</v>
+        <v>1686500</v>
       </c>
       <c r="G23" s="3">
+        <v>2470500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1698600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1790800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2992300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>2631100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>1748100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>1990400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>2537800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>3163400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>481300</v>
+        <v>261300</v>
       </c>
       <c r="E24" s="3">
-        <v>839200</v>
+        <v>787300</v>
       </c>
       <c r="F24" s="3">
-        <v>524000</v>
+        <v>441400</v>
       </c>
       <c r="G24" s="3">
+        <v>354700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>471000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>821300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>512800</v>
+      </c>
+      <c r="K24" s="3">
         <v>774200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>655200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>379200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>392700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>860400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>853400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1472,114 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1254400</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>740500</v>
+        <v>1611900</v>
       </c>
       <c r="F26" s="3">
-        <v>1306000</v>
+        <v>1245100</v>
       </c>
       <c r="G26" s="3">
+        <v>2115800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1227600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>724700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1278100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2218200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>1975800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>1368800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>1597700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>1677400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>2310100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1137700</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>602500</v>
+        <v>1446100</v>
       </c>
       <c r="F27" s="3">
-        <v>1189300</v>
+        <v>1129800</v>
       </c>
       <c r="G27" s="3">
+        <v>1988500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>589600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1163900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2144100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>1952300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>1350900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>1539400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>1636300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>2271300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,43 +1613,67 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E29" s="3">
-        <v>24700</v>
+        <v>2200</v>
       </c>
       <c r="F29" s="3">
-        <v>51600</v>
+        <v>3300</v>
       </c>
       <c r="G29" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K29" s="3">
         <v>47100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="L29" s="3">
         <v>503800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="M29" s="3">
         <v>34800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="N29" s="3">
         <v>-16800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="O29" s="3">
         <v>29300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="P29" s="3">
         <v>14100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="Q29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1707,20 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1754,114 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-580100</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>-354500</v>
+        <v>-387600</v>
       </c>
       <c r="F32" s="3">
-        <v>-445400</v>
+        <v>-401900</v>
       </c>
       <c r="G32" s="3">
+        <v>-574300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-567700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-435900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-478000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-518400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-154900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-759500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1137700</v>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>627200</v>
+        <v>1448300</v>
       </c>
       <c r="F33" s="3">
-        <v>1240900</v>
+        <v>1133100</v>
       </c>
       <c r="G33" s="3">
+        <v>1985200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>613800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1214400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2191200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>2456000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>1385700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>1522500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>1665600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>2285400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1895,119 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1137700</v>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>627200</v>
+        <v>1448300</v>
       </c>
       <c r="F35" s="3">
-        <v>1240900</v>
+        <v>1133100</v>
       </c>
       <c r="G35" s="3">
+        <v>1985200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>613800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1214400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2191200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>2456000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>1385700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>1522500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>1665600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>2285400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +2021,12 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,323 +2040,435 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13900300</v>
+        <v>12462300</v>
       </c>
       <c r="E41" s="3">
-        <v>12415900</v>
+        <v>13605300</v>
       </c>
       <c r="F41" s="3">
-        <v>7954900</v>
+        <v>8808200</v>
       </c>
       <c r="G41" s="3">
+        <v>9755700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>13603100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>12150500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7784800</v>
+      </c>
+      <c r="K41" s="3">
         <v>10749800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>11215400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>9396700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>9520100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>11598400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>11182900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10598300</v>
+        <v>10924000</v>
       </c>
       <c r="E42" s="3">
-        <v>12019900</v>
+        <v>11714600</v>
       </c>
       <c r="F42" s="3">
-        <v>10366100</v>
+        <v>10700000</v>
       </c>
       <c r="G42" s="3">
+        <v>10767000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>10371700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>11762900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>10144400</v>
+      </c>
+      <c r="K42" s="3">
         <v>10626400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>10132700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>9992400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>9755700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>10085400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>10037200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32390700</v>
+        <v>32941100</v>
       </c>
       <c r="E43" s="3">
-        <v>31838700</v>
+        <v>33276000</v>
       </c>
       <c r="F43" s="3">
-        <v>30555200</v>
+        <v>33414300</v>
       </c>
       <c r="G43" s="3">
+        <v>31937500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>31698200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>31157900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>29901800</v>
+      </c>
+      <c r="K43" s="3">
         <v>28899100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>29119000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>29882000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>20761300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>20843300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>20116800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16781600</v>
+        <v>17508700</v>
       </c>
       <c r="E44" s="3">
+        <v>16257000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>17412100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>17166100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>16422800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>15245700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>16156000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>16172400</v>
+      </c>
+      <c r="L44" s="3">
+        <v>16158900</v>
+      </c>
+      <c r="M44" s="3">
         <v>15578800</v>
       </c>
-      <c r="F44" s="3">
-        <v>16509000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>16172400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>16158900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>15578800</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>23339600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>23185100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>22082900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2203600</v>
+        <v>2442000</v>
       </c>
       <c r="E45" s="3">
-        <v>2019600</v>
+        <v>2413400</v>
       </c>
       <c r="F45" s="3">
-        <v>2112700</v>
+        <v>2362900</v>
       </c>
       <c r="G45" s="3">
+        <v>2172900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2156500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1976400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2067500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2175500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>1936600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>4957000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>2066700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>1916800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>1676200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>75874600</v>
+        <v>76278100</v>
       </c>
       <c r="E46" s="3">
-        <v>72431200</v>
+        <v>77266300</v>
       </c>
       <c r="F46" s="3">
-        <v>67497800</v>
+        <v>72697500</v>
       </c>
       <c r="G46" s="3">
+        <v>71799300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>74252300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>70882500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>66054600</v>
+      </c>
+      <c r="K46" s="3">
         <v>68623200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>68562600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>68160900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>65443400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>67629100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>65096000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23418200</v>
+        <v>24100000</v>
       </c>
       <c r="E47" s="3">
-        <v>22835900</v>
+        <v>24251500</v>
       </c>
       <c r="F47" s="3">
-        <v>22583400</v>
+        <v>23352300</v>
       </c>
       <c r="G47" s="3">
+        <v>23255600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>22917500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>22347600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>22100500</v>
+      </c>
+      <c r="K47" s="3">
         <v>21630800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>23888300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>24426800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>25769900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>27684300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>27944900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="Q47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12923100</v>
+        <v>16444700</v>
       </c>
       <c r="E48" s="3">
-        <v>12769400</v>
+        <v>13376900</v>
       </c>
       <c r="F48" s="3">
-        <v>12422700</v>
+        <v>12954200</v>
       </c>
       <c r="G48" s="3">
+        <v>12919100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>12646800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>12496300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12157100</v>
+      </c>
+      <c r="K48" s="3">
         <v>12203900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>12181400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>12316100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>12254400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>12244000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>12059700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43885500</v>
+        <v>44822600</v>
       </c>
       <c r="E49" s="3">
-        <v>43168600</v>
+        <v>43876100</v>
       </c>
       <c r="F49" s="3">
-        <v>43202200</v>
+        <v>43024000</v>
       </c>
       <c r="G49" s="3">
+        <v>43676200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>42947200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>42245600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>42278500</v>
+      </c>
+      <c r="K49" s="3">
         <v>42292300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>43301000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>43569100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>44476800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>42453200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>38471600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2502,20 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2549,67 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5025400</v>
+        <v>5626200</v>
       </c>
       <c r="E52" s="3">
-        <v>4656300</v>
+        <v>6201500</v>
       </c>
       <c r="F52" s="3">
-        <v>4731400</v>
+        <v>5570200</v>
       </c>
       <c r="G52" s="3">
+        <v>5284700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4917900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4556700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4630300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4895200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>4720200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>4242200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>3778900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>4188200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>4597800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2643,67 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>161126700</v>
+        <v>167273700</v>
       </c>
       <c r="E54" s="3">
-        <v>155861200</v>
+        <v>164972300</v>
       </c>
       <c r="F54" s="3">
-        <v>150437500</v>
+        <v>157598100</v>
       </c>
       <c r="G54" s="3">
+        <v>156934900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>157681600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>152528700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>147220900</v>
+      </c>
+      <c r="K54" s="3">
         <v>149645400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>152653500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>152715200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>151723300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>154198700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>148170000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2717,12 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,218 +2736,294 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11235600</v>
+        <v>11496100</v>
       </c>
       <c r="E57" s="3">
-        <v>12023200</v>
+        <v>12527100</v>
       </c>
       <c r="F57" s="3">
-        <v>10726200</v>
+        <v>11431300</v>
       </c>
       <c r="G57" s="3">
+        <v>11264400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10995400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>11766200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10496900</v>
+      </c>
+      <c r="K57" s="3">
         <v>10028300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>9988000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>10946100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>10770000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>9352900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>8818800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8788500</v>
+        <v>7412600</v>
       </c>
       <c r="E58" s="3">
-        <v>11347800</v>
+        <v>6625300</v>
       </c>
       <c r="F58" s="3">
-        <v>3434400</v>
+        <v>10705500</v>
       </c>
       <c r="G58" s="3">
+        <v>9873200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8600600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5552600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3361000</v>
+      </c>
+      <c r="K58" s="3">
         <v>6353800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>6216900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>6111500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>7700200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>6085000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>5627200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36969600</v>
+        <v>36260400</v>
       </c>
       <c r="E59" s="3">
-        <v>36017000</v>
+        <v>36541400</v>
       </c>
       <c r="F59" s="3">
-        <v>34887200</v>
+        <v>35566400</v>
       </c>
       <c r="G59" s="3">
+        <v>34622100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>36179100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>35246900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>34141200</v>
+      </c>
+      <c r="K59" s="3">
         <v>34551700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>35443700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>34640300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>32000300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>33477100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>33731800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56993700</v>
+        <v>55166800</v>
       </c>
       <c r="E60" s="3">
-        <v>53714100</v>
+        <v>55693900</v>
       </c>
       <c r="F60" s="3">
-        <v>49047800</v>
+        <v>57703200</v>
       </c>
       <c r="G60" s="3">
+        <v>55759700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>55775100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>52565700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>47999100</v>
+      </c>
+      <c r="K60" s="3">
         <v>50933900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>51648600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>51697900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>50470500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>48915000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>48177900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31142000</v>
+        <v>36595200</v>
       </c>
       <c r="E61" s="3">
-        <v>30428400</v>
+        <v>33394600</v>
       </c>
       <c r="F61" s="3">
-        <v>29292900</v>
+        <v>28684200</v>
       </c>
       <c r="G61" s="3">
+        <v>30171900</v>
+      </c>
+      <c r="H61" s="3">
+        <v>30476100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>29777800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>28666600</v>
+      </c>
+      <c r="K61" s="3">
         <v>28340300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>29600300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>30043500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>32026100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>38674700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>31563800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19543900</v>
+        <v>18417900</v>
       </c>
       <c r="E62" s="3">
-        <v>17811600</v>
+        <v>19903400</v>
       </c>
       <c r="F62" s="3">
-        <v>18250300</v>
+        <v>19095300</v>
       </c>
       <c r="G62" s="3">
+        <v>19272100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19126100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>17430800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>17860100</v>
+      </c>
+      <c r="K62" s="3">
         <v>18649700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>20484200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>20910500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>20396700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>21366900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>22391600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +3057,20 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +3104,20 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +3151,67 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>110634900</v>
+        <v>113207100</v>
       </c>
       <c r="E66" s="3">
-        <v>104841000</v>
+        <v>112130000</v>
       </c>
       <c r="F66" s="3">
-        <v>99374700</v>
+        <v>108435200</v>
       </c>
       <c r="G66" s="3">
+        <v>108103600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>108269400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>102599300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>97249900</v>
+      </c>
+      <c r="K66" s="3">
         <v>100645900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>103254500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>104266500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>104659200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>109687800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>102846900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3225,12 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3264,20 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +3311,20 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,8 +3358,20 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3405,67 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45695300</v>
+        <v>47218400</v>
       </c>
       <c r="E72" s="3">
-        <v>46017300</v>
+        <v>45916200</v>
       </c>
       <c r="F72" s="3">
-        <v>45438400</v>
+        <v>44529400</v>
       </c>
       <c r="G72" s="3">
+        <v>43311700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>44718200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>45033400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>44466800</v>
+      </c>
+      <c r="K72" s="3">
         <v>44000000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>42359600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>40160500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>38469700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>35296500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>36673300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3499,20 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3546,20 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3593,67 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50491800</v>
+        <v>54065500</v>
       </c>
       <c r="E76" s="3">
-        <v>51020300</v>
+        <v>52842300</v>
       </c>
       <c r="F76" s="3">
-        <v>51062900</v>
+        <v>49163000</v>
       </c>
       <c r="G76" s="3">
+        <v>48831400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>49412200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>49929400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>49971100</v>
+      </c>
+      <c r="K76" s="3">
         <v>48999500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>49399000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>48448700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>47064100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>44510900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>45323200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3687,119 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1137700</v>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>627200</v>
+        <v>1448300</v>
       </c>
       <c r="F81" s="3">
-        <v>1240900</v>
+        <v>1133100</v>
       </c>
       <c r="G81" s="3">
+        <v>1985200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>613800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1214400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2191200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>2456000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>1385700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>1522500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>1665600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>2285400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3813,59 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>930100</v>
+        <v>1174900</v>
       </c>
       <c r="E83" s="3">
-        <v>1026600</v>
+        <v>1059600</v>
       </c>
       <c r="F83" s="3">
-        <v>911100</v>
+        <v>948700</v>
       </c>
       <c r="G83" s="3">
+        <v>917900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>910200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1004700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>891600</v>
+      </c>
+      <c r="K83" s="3">
         <v>939100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>959300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>1143300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>967200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>785300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>775900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3899,20 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3946,20 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3993,20 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +4040,20 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +4087,67 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>210900</v>
+        <v>583000</v>
       </c>
       <c r="E89" s="3">
-        <v>4757200</v>
+        <v>6689000</v>
       </c>
       <c r="F89" s="3">
-        <v>1660500</v>
+        <v>1195700</v>
       </c>
       <c r="G89" s="3">
+        <v>1192400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>206400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>4655500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1625000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1495600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>1540500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>3636400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>1781700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>1423800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>1331100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +4161,59 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-589000</v>
+        <v>-534700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1072600</v>
+        <v>-911300</v>
       </c>
       <c r="F91" s="3">
-        <v>-676600</v>
+        <v>-719200</v>
       </c>
       <c r="G91" s="3">
+        <v>-658800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-576500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1049700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-662100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-607000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-563200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-969400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-724800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-988300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4247,20 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4294,67 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1428300</v>
+        <v>-2412300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2494200</v>
+        <v>-1768900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1024400</v>
+        <v>-1122200</v>
       </c>
       <c r="G94" s="3">
+        <v>-1212200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1397800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2440900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1002500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>592400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-369800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,8 +4368,12 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3510,8 +4407,20 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4454,20 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4501,20 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4548,157 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2627700</v>
+        <v>773000</v>
       </c>
       <c r="E100" s="3">
-        <v>2337100</v>
+        <v>-237200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3500600</v>
+        <v>-831200</v>
       </c>
       <c r="G100" s="3">
+        <v>-4005500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2571500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2287100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3425800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-639500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-380400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>3617700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>74100</v>
+        <v>-86700</v>
       </c>
       <c r="E101" s="3">
-        <v>-139100</v>
+        <v>113100</v>
       </c>
       <c r="F101" s="3">
-        <v>69600</v>
+        <v>-190000</v>
       </c>
       <c r="G101" s="3">
+        <v>176800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>72500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-13500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>50500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>-130200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>-402800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>39900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>63400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1484400</v>
+        <v>-1143000</v>
       </c>
       <c r="E102" s="3">
-        <v>4461000</v>
+        <v>4798300</v>
       </c>
       <c r="F102" s="3">
-        <v>-2794900</v>
+        <v>-947600</v>
       </c>
       <c r="G102" s="3">
+        <v>-3848500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1452700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4365600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2735100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-465600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>1803000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-107700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>415500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>4972300</v>
       </c>
     </row>
